--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
-    <sheet name="Grafico" sheetId="3" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId2"/>
+    <sheet name="Grafico" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="periodo_selecionado">Projeto!$T$3</definedName>
@@ -22,7 +23,7 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
   <si>
     <t>Planejar</t>
   </si>
@@ -246,6 +247,12 @@
   </si>
   <si>
     <t>Periodos</t>
+  </si>
+  <si>
+    <t>INÍCIO2</t>
+  </si>
+  <si>
+    <t>DURAÇÃO2</t>
   </si>
 </sst>
 </file>
@@ -525,9 +532,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +549,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -834,57 +841,7 @@
           </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1167,11 +1124,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="250507344"/>
-        <c:axId val="250507904"/>
+        <c:axId val="1744648992"/>
+        <c:axId val="1744652800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="250507344"/>
+        <c:axId val="1744648992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1170,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250507904"/>
+        <c:crossAx val="1744652800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250507904"/>
+        <c:axId val="1744652800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1228,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250507344"/>
+        <c:crossAx val="1744648992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1997,11 +1954,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="432935216"/>
-        <c:axId val="432936336"/>
+        <c:axId val="1744651712"/>
+        <c:axId val="1744658240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432935216"/>
+        <c:axId val="1744651712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,7 +2001,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432936336"/>
+        <c:crossAx val="1744658240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2052,7 +2009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432936336"/>
+        <c:axId val="1744658240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2060,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432935216"/>
+        <c:crossAx val="1744651712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3734,7 +3691,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Responseval/atividade">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Responseval/atividade">
   <location ref="A38:C71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3993,7 +3950,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
   <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4180,6 +4137,22 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ATIVIDADE"/>
+    <tableColumn id="2" name="Responsavel"/>
+    <tableColumn id="3" name="INÍCIO"/>
+    <tableColumn id="4" name="DURAÇÃO"/>
+    <tableColumn id="5" name="INÍCIO2"/>
+    <tableColumn id="6" name="DURAÇÃO2"/>
+    <tableColumn id="7" name="CONCLUÍDO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4414,8 +4387,8 @@
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4431,30 +4404,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:90" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:90" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="M3" s="8" t="s">
         <v>11</v>
       </c>
@@ -4497,16 +4470,16 @@
       </c>
     </row>
     <row r="4" spans="2:90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
@@ -5240,7 +5213,7 @@
       <c r="B27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="15">
@@ -5279,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="16">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5302,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="16">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5325,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="16">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5348,14 +5321,14 @@
         <v>1</v>
       </c>
       <c r="H31" s="16">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="15">
@@ -5378,7 +5351,7 @@
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="15">
@@ -5548,10 +5521,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C71"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5569,7 +5613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B1" t="s">
@@ -5577,271 +5621,271 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>0.66538461538461546</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>0.17142857142857149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>0.23333333333333339</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>0.40178571428571414</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B38" t="s">
@@ -5852,365 +5896,365 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="23">
         <v>13</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>0.66538461538461546</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="24">
-        <v>1</v>
-      </c>
-      <c r="C40" s="21">
+      <c r="B40" s="23">
+        <v>1</v>
+      </c>
+      <c r="C40" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="24">
-        <v>1</v>
-      </c>
-      <c r="C41" s="21">
+      <c r="B41" s="23">
+        <v>1</v>
+      </c>
+      <c r="C41" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="24">
-        <v>1</v>
-      </c>
-      <c r="C42" s="21">
+      <c r="B42" s="23">
+        <v>1</v>
+      </c>
+      <c r="C42" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="24">
-        <v>1</v>
-      </c>
-      <c r="C43" s="21">
+      <c r="B43" s="23">
+        <v>1</v>
+      </c>
+      <c r="C43" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="24">
-        <v>1</v>
-      </c>
-      <c r="C44" s="21">
+      <c r="B44" s="23">
+        <v>1</v>
+      </c>
+      <c r="C44" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="24">
-        <v>1</v>
-      </c>
-      <c r="C45" s="21">
+      <c r="B45" s="23">
+        <v>1</v>
+      </c>
+      <c r="C45" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="24">
-        <v>1</v>
-      </c>
-      <c r="C46" s="21">
+      <c r="B46" s="23">
+        <v>1</v>
+      </c>
+      <c r="C46" s="20">
         <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="24">
-        <v>1</v>
-      </c>
-      <c r="C47" s="21">
+      <c r="B47" s="23">
+        <v>1</v>
+      </c>
+      <c r="C47" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="24">
-        <v>1</v>
-      </c>
-      <c r="C48" s="21">
+      <c r="B48" s="23">
+        <v>1</v>
+      </c>
+      <c r="C48" s="20">
         <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="24">
-        <v>1</v>
-      </c>
-      <c r="C49" s="21">
+      <c r="B49" s="23">
+        <v>1</v>
+      </c>
+      <c r="C49" s="20">
         <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="24">
-        <v>1</v>
-      </c>
-      <c r="C50" s="21">
+      <c r="B50" s="23">
+        <v>1</v>
+      </c>
+      <c r="C50" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="24">
-        <v>1</v>
-      </c>
-      <c r="C51" s="21">
+      <c r="B51" s="23">
+        <v>1</v>
+      </c>
+      <c r="C51" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="24">
-        <v>1</v>
-      </c>
-      <c r="C52" s="21">
+      <c r="B52" s="23">
+        <v>1</v>
+      </c>
+      <c r="C52" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>7</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>0.17142857142857149</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="24">
-        <v>1</v>
-      </c>
-      <c r="C54" s="21">
+      <c r="B54" s="23">
+        <v>1</v>
+      </c>
+      <c r="C54" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="24">
-        <v>1</v>
-      </c>
-      <c r="C55" s="21">
+      <c r="B55" s="23">
+        <v>1</v>
+      </c>
+      <c r="C55" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="24">
-        <v>1</v>
-      </c>
-      <c r="C56" s="21">
+      <c r="B56" s="23">
+        <v>1</v>
+      </c>
+      <c r="C56" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="24">
-        <v>1</v>
-      </c>
-      <c r="C57" s="21">
+      <c r="B57" s="23">
+        <v>1</v>
+      </c>
+      <c r="C57" s="20">
         <v>0.3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="24">
-        <v>1</v>
-      </c>
-      <c r="C58" s="21">
+      <c r="B58" s="23">
+        <v>1</v>
+      </c>
+      <c r="C58" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="24">
-        <v>1</v>
-      </c>
-      <c r="C59" s="21">
+      <c r="B59" s="23">
+        <v>1</v>
+      </c>
+      <c r="C59" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="24">
-        <v>1</v>
-      </c>
-      <c r="C60" s="21">
+      <c r="B60" s="23">
+        <v>1</v>
+      </c>
+      <c r="C60" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="23">
         <v>2</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="24">
-        <v>1</v>
-      </c>
-      <c r="C62" s="21">
+      <c r="B62" s="23">
+        <v>1</v>
+      </c>
+      <c r="C62" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="24">
-        <v>1</v>
-      </c>
-      <c r="C63" s="21">
+      <c r="B63" s="23">
+        <v>1</v>
+      </c>
+      <c r="C63" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="24">
+      <c r="B64" s="23">
         <v>6</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>0.23333333333333339</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="24">
-        <v>1</v>
-      </c>
-      <c r="C65" s="21">
+      <c r="B65" s="23">
+        <v>1</v>
+      </c>
+      <c r="C65" s="20">
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="24">
-        <v>1</v>
-      </c>
-      <c r="C66" s="21">
+      <c r="B66" s="23">
+        <v>1</v>
+      </c>
+      <c r="C66" s="20">
         <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="24">
-        <v>1</v>
-      </c>
-      <c r="C67" s="21">
+      <c r="B67" s="23">
+        <v>1</v>
+      </c>
+      <c r="C67" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="24">
-        <v>1</v>
-      </c>
-      <c r="C68" s="21">
+      <c r="B68" s="23">
+        <v>1</v>
+      </c>
+      <c r="C68" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="24">
-        <v>1</v>
-      </c>
-      <c r="C69" s="21">
+      <c r="B69" s="23">
+        <v>1</v>
+      </c>
+      <c r="C69" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="24">
-        <v>1</v>
-      </c>
-      <c r="C70" s="21">
+      <c r="B70" s="23">
+        <v>1</v>
+      </c>
+      <c r="C70" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="23">
         <v>28</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>0.40178571428571414</v>
       </c>
     </row>

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Grafico" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Projeto!$C$2:$C$36</definedName>
     <definedName name="periodo_selecionado">Projeto!$T$3</definedName>
     <definedName name="PeriodoInPlanejado">Projeto!A$8=MEDIAN(Projeto!A$8,Projeto!$D1,Projeto!$D1+Projeto!$E1-1)</definedName>
     <definedName name="PeriodoInReal">Projeto!A$8=MEDIAN(Projeto!A$8,Projeto!$F1,Projeto!$F1+Projeto!$G1-1)</definedName>
@@ -754,7 +755,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1124,11 +1124,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1744648992"/>
-        <c:axId val="1744652800"/>
+        <c:axId val="118726192"/>
+        <c:axId val="198417360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1744648992"/>
+        <c:axId val="118726192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1170,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1744652800"/>
+        <c:crossAx val="198417360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1744652800"/>
+        <c:axId val="198417360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1744648992"/>
+        <c:crossAx val="118726192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1242,7 +1242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1954,11 +1953,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1744651712"/>
-        <c:axId val="1744658240"/>
+        <c:axId val="68851776"/>
+        <c:axId val="197879440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1744651712"/>
+        <c:axId val="68851776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2000,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1744658240"/>
+        <c:crossAx val="197879440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2009,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1744658240"/>
+        <c:axId val="197879440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2059,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1744651712"/>
+        <c:crossAx val="68851776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2074,7 +2073,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4387,8 +4385,8 @@
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5160,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5344,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5367,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5390,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5440,6 +5438,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C2:C36"/>
   <mergeCells count="1">
     <mergeCell ref="B2:K4"/>
   </mergeCells>

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -4385,8 +4385,8 @@
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="16">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="2:90" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="16">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5158,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -1124,11 +1124,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="118726192"/>
-        <c:axId val="198417360"/>
+        <c:axId val="75690592"/>
+        <c:axId val="75691152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118726192"/>
+        <c:axId val="75690592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1170,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198417360"/>
+        <c:crossAx val="75691152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198417360"/>
+        <c:axId val="75691152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118726192"/>
+        <c:crossAx val="75690592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1953,11 +1953,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="68851776"/>
-        <c:axId val="197879440"/>
+        <c:axId val="75693952"/>
+        <c:axId val="75694512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68851776"/>
+        <c:axId val="75693952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2000,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197879440"/>
+        <c:crossAx val="75694512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197879440"/>
+        <c:axId val="75694512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2059,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68851776"/>
+        <c:crossAx val="75693952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4385,8 +4385,8 @@
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5388,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -1124,11 +1124,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="75690592"/>
-        <c:axId val="75691152"/>
+        <c:axId val="106336928"/>
+        <c:axId val="153374384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75690592"/>
+        <c:axId val="106336928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1170,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75691152"/>
+        <c:crossAx val="153374384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75691152"/>
+        <c:axId val="153374384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75690592"/>
+        <c:crossAx val="106336928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1953,11 +1953,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="75693952"/>
-        <c:axId val="75694512"/>
+        <c:axId val="153377184"/>
+        <c:axId val="153377744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75693952"/>
+        <c:axId val="153377184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2000,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75694512"/>
+        <c:crossAx val="153377744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75694512"/>
+        <c:axId val="153377744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2059,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75693952"/>
+        <c:crossAx val="153377184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3247,8 +3247,8 @@
         <xdr:to>
           <xdr:col>20</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4380,13 +4380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4415,7 +4415,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:90" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:90" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -4467,7 +4467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:90" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -4484,12 +4484,12 @@
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="2:90" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:90" hidden="1" x14ac:dyDescent="0.3">
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:90" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:90" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -4514,7 +4514,7 @@
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
     </row>
-    <row r="7" spans="2:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:90" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:90" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4997,10 +4997,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>20</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -5388,10 +5388,10 @@
         <v>2</v>
       </c>
       <c r="H34" s="16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>42</v>
       </c>
@@ -5438,7 +5438,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C36"/>
+  <autoFilter ref="C2:C36">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Rômulo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B2:K4"/>
   </mergeCells>
@@ -5499,8 +5505,8 @@
                   <to>
                     <xdr:col>20</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -565,7 +565,13 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -755,6 +761,7 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1027,7 +1034,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1045,25 +1052,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.2</c:v>
@@ -1099,16 +1106,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,6 +1249,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1856,7 +1864,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1874,25 +1882,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.2</c:v>
@@ -1928,16 +1936,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,6 +2081,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3247,8 +3256,8 @@
         <xdr:to>
           <xdr:col>20</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3351,7 +3360,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41883.862462500001" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41896.655018055557" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:H36" sheet="Projeto" r:id="rId2"/>
   </cacheSource>
@@ -3485,7 +3494,7 @@
     <n v="1"/>
     <n v="5"/>
     <n v="1"/>
-    <n v="0.9"/>
+    <n v="0.95"/>
   </r>
   <r>
     <x v="7"/>
@@ -3503,7 +3512,7 @@
     <n v="1"/>
     <n v="7"/>
     <n v="1"/>
-    <n v="0.8"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -3512,7 +3521,7 @@
     <n v="1"/>
     <n v="8"/>
     <n v="1"/>
-    <n v="0.95"/>
+    <n v="0.9"/>
   </r>
   <r>
     <x v="10"/>
@@ -3575,7 +3584,7 @@
     <n v="2"/>
     <n v="14"/>
     <n v="2"/>
-    <n v="0"/>
+    <n v="0.3"/>
   </r>
   <r>
     <x v="17"/>
@@ -3611,7 +3620,7 @@
     <n v="1"/>
     <n v="16"/>
     <n v="1"/>
-    <n v="0.1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="21"/>
@@ -3620,7 +3629,7 @@
     <n v="1"/>
     <n v="16"/>
     <n v="1"/>
-    <n v="0.1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="22"/>
@@ -3629,7 +3638,7 @@
     <n v="1"/>
     <n v="16"/>
     <n v="1"/>
-    <n v="0.1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="23"/>
@@ -3638,7 +3647,7 @@
     <n v="1"/>
     <n v="17"/>
     <n v="1"/>
-    <n v="0.1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="24"/>
@@ -3647,7 +3656,7 @@
     <n v="1"/>
     <n v="17"/>
     <n v="1"/>
-    <n v="0"/>
+    <n v="0.25"/>
   </r>
   <r>
     <x v="25"/>
@@ -3656,7 +3665,7 @@
     <n v="1"/>
     <n v="18"/>
     <n v="1"/>
-    <n v="0"/>
+    <n v="0.25"/>
   </r>
   <r>
     <x v="26"/>
@@ -3665,7 +3674,7 @@
     <n v="2"/>
     <n v="19"/>
     <n v="2"/>
-    <n v="0"/>
+    <n v="0.7"/>
   </r>
   <r>
     <x v="27"/>
@@ -3689,7 +3698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Responseval/atividade">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Responseval/atividade">
   <location ref="A38:C71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3863,7 +3872,7 @@
     <dataField name="Andamento" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3948,7 +3957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
   <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4113,7 +4122,7 @@
     <dataField name="Andamento" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4380,13 +4389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4415,7 +4424,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:90" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:90" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -4467,7 +4476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:90" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -4484,12 +4493,12 @@
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="2:90" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:90" x14ac:dyDescent="0.3">
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:90" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:90" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
@@ -4514,7 +4523,7 @@
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
     </row>
-    <row r="7" spans="2:90" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -4542,7 +4551,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:90" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4997,10 +5006,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="16">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>26</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
@@ -5092,7 +5101,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
@@ -5115,7 +5124,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
@@ -5158,10 +5167,10 @@
         <v>2</v>
       </c>
       <c r="H24" s="16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
@@ -5184,7 +5193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>20</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -5276,7 +5285,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
@@ -5299,7 +5308,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -5414,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>42</v>
       </c>
@@ -5438,49 +5447,43 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:C36">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Rômulo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:C36"/>
   <mergeCells count="1">
     <mergeCell ref="B2:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:CK36">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>PorcentagemConcluídaPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>RealPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>J$8=periodo_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:CK37">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:CK8">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>J$8=periodo_selecionado</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5505,8 +5508,8 @@
                   <to>
                     <xdr:col>20</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5529,7 +5532,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,8 +5602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,7 +5633,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="20">
-        <v>0.66538461538461546</v>
+        <v>0.79615384615384621</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5638,7 +5641,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="20">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5686,7 +5689,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5694,7 +5697,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5702,7 +5705,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="20">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5710,7 +5713,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="20">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5726,7 +5729,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5734,7 +5737,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5830,7 +5833,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="20">
-        <v>0.23333333333333339</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5854,7 +5857,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5862,7 +5865,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5870,7 +5873,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,7 +5881,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5886,7 +5889,7 @@
         <v>49</v>
       </c>
       <c r="B34" s="20">
-        <v>0.40178571428571414</v>
+        <v>0.56250000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5908,7 +5911,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="20">
-        <v>0.66538461538461546</v>
+        <v>0.79615384615384621</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5919,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="20">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5985,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5996,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6007,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="20">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6018,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="20">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6040,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6051,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6183,7 +6186,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="20">
-        <v>0.23333333333333339</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6216,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6227,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6238,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6249,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6260,7 +6263,7 @@
         <v>28</v>
       </c>
       <c r="C71" s="20">
-        <v>0.40178571428571414</v>
+        <v>0.56250000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -472,7 +472,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +554,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Activity" xfId="2"/>
@@ -565,13 +568,7 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -761,7 +758,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1131,11 +1127,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="106336928"/>
-        <c:axId val="153374384"/>
+        <c:axId val="-705879488"/>
+        <c:axId val="-705876768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106336928"/>
+        <c:axId val="-705879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1173,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153374384"/>
+        <c:crossAx val="-705876768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1185,7 +1181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153374384"/>
+        <c:axId val="-705876768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1231,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106336928"/>
+        <c:crossAx val="-705879488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,7 +1245,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1961,11 +1956,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="153377184"/>
-        <c:axId val="153377744"/>
+        <c:axId val="-705877856"/>
+        <c:axId val="-705876224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153377184"/>
+        <c:axId val="-705877856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2003,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153377744"/>
+        <c:crossAx val="-705876224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2016,7 +2011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153377744"/>
+        <c:axId val="-705876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2062,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153377184"/>
+        <c:crossAx val="-705877856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2081,7 +2076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3698,7 +3692,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Responseval/atividade">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Responseval/atividade">
   <location ref="A38:C71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3872,7 +3866,7 @@
     <dataField name="Andamento" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3957,7 +3951,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
   <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4122,7 +4116,7 @@
     <dataField name="Andamento" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4394,8 +4388,8 @@
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5052,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5075,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="16">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5140,7 +5134,7 @@
       <c r="F23" s="15">
         <v>13</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="27">
         <v>1</v>
       </c>
       <c r="H23" s="16">
@@ -5259,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5282,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5305,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5328,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5452,38 +5446,38 @@
     <mergeCell ref="B2:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:CK36">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>PorcentagemConcluídaPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>RealPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>J$8=periodo_selecionado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:CK37">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:CK8">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>J$8=periodo_selecionado</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -551,22 +551,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6"/>
     <cellStyle name="Period Headers" xfId="3"/>
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
-    <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -742,7 +742,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -758,6 +758,7 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1127,11 +1128,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-705879488"/>
-        <c:axId val="-705876768"/>
+        <c:axId val="-2083732896"/>
+        <c:axId val="-2083732352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-705879488"/>
+        <c:axId val="-2083732896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1174,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705876768"/>
+        <c:crossAx val="-2083732352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1181,7 +1182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-705876768"/>
+        <c:axId val="-2083732352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1232,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705879488"/>
+        <c:crossAx val="-2083732896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1245,6 +1246,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1335,7 +1337,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1956,11 +1958,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-705877856"/>
-        <c:axId val="-705876224"/>
+        <c:axId val="-2083821264"/>
+        <c:axId val="-1919503504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-705877856"/>
+        <c:axId val="-2083821264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2005,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705876224"/>
+        <c:crossAx val="-1919503504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2011,7 +2013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-705876224"/>
+        <c:axId val="-1919503504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2064,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-705877856"/>
+        <c:crossAx val="-2083821264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2076,6 +2078,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3354,7 +3357,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41896.655018055557" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41896.655018055557" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:H36" sheet="Projeto" r:id="rId2"/>
   </cacheSource>
@@ -4388,8 +4391,8 @@
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4405,30 +4408,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:90" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="2:90" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="M3" s="8" t="s">
         <v>11</v>
       </c>
@@ -4471,16 +4474,16 @@
       </c>
     </row>
     <row r="4" spans="2:90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
@@ -5023,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="16">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5134,11 +5137,11 @@
       <c r="F23" s="15">
         <v>13</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <v>1</v>
       </c>
       <c r="H23" s="16">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5230,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/Planejamento/Planejamento do Projto RH Verithus.xlsx
+++ b/Planejamento/Planejamento do Projto RH Verithus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Real">(PeriodoInReal*(Projeto!$F1&gt;0))*PeriodoInPlanejado</definedName>
     <definedName name="RealPosterior">PeriodoInReal*(Projeto!$F1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -560,13 +560,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6"/>
     <cellStyle name="Period Headers" xfId="3"/>
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -742,7 +742,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -758,7 +758,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1128,11 +1127,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-2083732896"/>
-        <c:axId val="-2083732352"/>
+        <c:axId val="216194720"/>
+        <c:axId val="216194160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2083732896"/>
+        <c:axId val="216194720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1173,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083732352"/>
+        <c:crossAx val="216194160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083732352"/>
+        <c:axId val="216194160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1231,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083732896"/>
+        <c:crossAx val="216194720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1246,7 +1245,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1337,7 +1335,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1958,11 +1956,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2083821264"/>
-        <c:axId val="-1919503504"/>
+        <c:axId val="368304000"/>
+        <c:axId val="368304560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2083821264"/>
+        <c:axId val="368304000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2003,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1919503504"/>
+        <c:crossAx val="368304560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2013,7 +2011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1919503504"/>
+        <c:axId val="368304560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2062,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083821264"/>
+        <c:crossAx val="368304000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2078,7 +2076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3357,7 +3354,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="41896.655018055557" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41896.655018055557" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="B7:H36" sheet="Projeto" r:id="rId2"/>
   </cacheSource>
@@ -3695,6 +3692,196 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
+  <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item x="26"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Andamento" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Responseval/atividade">
   <location ref="A38:C71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -3869,7 +4056,7 @@
     <dataField name="Andamento" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3935,196 +4122,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Responsavel/Atividade">
-  <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="30">
-        <item x="26"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="24"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="25"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="23"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Andamento" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4391,8 +4388,8 @@
   </sheetPr>
   <dimension ref="B2:CL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4934,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:90" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
